--- a/fieldData/school_5F.xlsx
+++ b/fieldData/school_5F.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuta04\ML-Agents\Multi-Agent_EL_School\fieldData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BE145A-98A2-47A8-AF0C-237C12182B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADD41DF-D0FC-4F6D-BAE7-4BEB27A48793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8A8FD18B-8B0B-49D0-9A57-F8676F92612A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8A8FD18B-8B0B-49D0-9A57-F8676F92612A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,14 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="39">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -674,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2D650B-EB6E-484D-95A2-87377CCCE523}">
   <dimension ref="A1:CW36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BL5" sqref="BL5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5110,10 +5117,10 @@
         <v>3</v>
       </c>
       <c r="AZ15" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA15" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB15" s="1">
         <v>3</v>
@@ -7128,16 +7135,16 @@
         <v>3</v>
       </c>
       <c r="M22" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O22" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P22" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q22" s="1">
         <v>3</v>
@@ -7347,16 +7354,16 @@
         <v>3</v>
       </c>
       <c r="CH22" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CI22" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CJ22" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CK22" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CL22" s="1">
         <v>3</v>
@@ -11668,19 +11675,24 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B26:K28 CO24:CV24 CO13:CO23 L25:CV27 BA19:BA22 A14:A35 A13:D13 B14:D25 I25:K25 E13:H25 AE10:CV12 AW29:AW36 CG29:CG36 AX35:BC35 BC19:BC22 AY13:BC18 AY23:BC24 AT1:AX10 AC29:AC36 I29:J36 AD29:AH35 AE1:BD1 BE28:BO36 AM29:AN36 I13:AX24 X2:AH9 A1:AD12 B28:R35 BF29:CU35 C28:CV28 A36:CV36 C9:CV9 AM1:AN8 W2:AK8 AY1:AY9 AU2:BH8">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CW13:XFD23 BA19:BA22 I25:XFD25 A13:H25 BB15:BC22 AY13:BC18 AY23:BC24 AY13:BR13 BD14:BR23 I13:AX24 BS13:CO23 AY24:XFD24 A26:XFD1048576 A1:XFD12">
-    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="22" operator="equal">
       <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM1:AN8 AI2:BD9 BD2:BH8">
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
+      <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM1:AN8 AI2:BD9 BD2:BH8">
@@ -11688,22 +11700,22 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM1:AN8 AI2:BD9 BD2:BH8">
+  <conditionalFormatting sqref="W29:Z35 M28:W35">
     <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W29:Z35 M28:W35">
+  <conditionalFormatting sqref="AC29:AC36 X28:AH35">
     <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC29:AC36 X28:AH35">
+  <conditionalFormatting sqref="AM29:AN36 AI28:AS35 AP29:BC35">
     <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM29:AN36 AI28:AS35 AP29:BC35">
+  <conditionalFormatting sqref="AT9:AX10 AT2:BD9 BD2:BH8">
     <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
       <formula>2</formula>
     </cfRule>
@@ -11713,17 +11725,17 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT9:AX10 AT2:BD9 BD2:BH8">
+  <conditionalFormatting sqref="AW29:AW36 AT28:BD35">
     <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW29:AW36 AT28:BD35">
+  <conditionalFormatting sqref="BE1:CV9">
     <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE1:CV9">
+  <conditionalFormatting sqref="CL2:CV9">
     <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
@@ -11733,120 +11745,120 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL2:CV9">
+  <conditionalFormatting sqref="BP28:BZ35">
     <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP28:BZ35">
+  <conditionalFormatting sqref="CG29:CG36 CA28:CK35 CA29:CU35">
     <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG29:CG36 CA28:CK35 CA29:CU35">
+  <conditionalFormatting sqref="CH30:CV36 CA28:CV35">
     <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH30:CV36 CA28:CV35">
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+  <conditionalFormatting sqref="CP13:CV23">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CP13:CV23">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CP13:CV23">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CP13:CV23">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY19:BB22">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY19:BB22">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY19:BB22">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE28:BO36 BO29:BQ35">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BP28:BZ36">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP28:BZ36">
+  <conditionalFormatting sqref="AJ2:AV8">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ2:AV8">
+  <conditionalFormatting sqref="BF2:BP8">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF2:BP8">
+  <conditionalFormatting sqref="BQ2:CA8">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ2:CA8">
+  <conditionalFormatting sqref="CB2:CV8">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CB2:CV8">
+  <conditionalFormatting sqref="CM2:CU8">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM2:CU8">
+  <conditionalFormatting sqref="S29:AG35">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S29:AG35">
+  <conditionalFormatting sqref="CH28:CV36">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH28:CV36">
+  <conditionalFormatting sqref="CM29:CU35">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM29:CU35">
+  <conditionalFormatting sqref="CA28:CK36">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA28:CK36">
+  <conditionalFormatting sqref="CB29:CJ35">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CB29:CJ35">
+  <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>2</formula>
+      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
